--- a/downloads/S-ERP_설계평가.xlsx
+++ b/downloads/S-ERP_설계평가.xlsx
@@ -3125,7 +3125,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E35:F100" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E35:F100" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"Lower,Higher"</formula1>
     </dataValidation>
   </dataValidations>
